--- a/artfynd/A 17277-2023 artfynd.xlsx
+++ b/artfynd/A 17277-2023 artfynd.xlsx
@@ -899,7 +899,7 @@
         <v>129086567</v>
       </c>
       <c r="B4" t="n">
-        <v>57648</v>
+        <v>57805</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
